--- a/src/main/resources/electricMeters/templates/Суммарный профиль.xlsx
+++ b/src/main/resources/electricMeters/templates/Суммарный профиль.xlsx
@@ -859,14 +859,26 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,18 +903,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,30 +1306,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1371,9 +1371,9 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1418,40 +1418,40 @@
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
@@ -1526,10 +1526,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <f>B6</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="13"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1556,10 +1553,7 @@
       <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <f>A9+1</f>
-        <v>1</v>
-      </c>
+      <c r="A10" s="13"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1586,10 +1580,7 @@
       <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <f t="shared" ref="A11:A39" si="0">A10+1</f>
-        <v>2</v>
-      </c>
+      <c r="A11" s="13"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1616,10 +1607,7 @@
       <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A12" s="13"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1646,10 +1634,7 @@
       <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="A13" s="13"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1676,10 +1661,7 @@
       <c r="Y13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="A14" s="13"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1706,10 +1688,7 @@
       <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="A15" s="13"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1736,10 +1715,7 @@
       <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="A16" s="13"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1766,10 +1742,7 @@
       <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="A17" s="13"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1796,10 +1769,7 @@
       <c r="Y17" s="10"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1826,10 +1796,7 @@
       <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="A19" s="13"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1856,10 +1823,7 @@
       <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="A20" s="13"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1886,10 +1850,7 @@
       <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="A21" s="13"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1916,10 +1877,7 @@
       <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+      <c r="A22" s="13"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1946,10 +1904,7 @@
       <c r="Y22" s="10"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="A23" s="13"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1976,10 +1931,7 @@
       <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="A24" s="13"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2006,10 +1958,7 @@
       <c r="Y24" s="10"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -2036,10 +1985,7 @@
       <c r="Y25" s="10"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="A26" s="13"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2066,10 +2012,7 @@
       <c r="Y26" s="10"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="A27" s="13"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -2096,10 +2039,7 @@
       <c r="Y27" s="10"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="A28" s="13"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2126,10 +2066,7 @@
       <c r="Y28" s="10"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="A29" s="13"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2156,10 +2093,7 @@
       <c r="Y29" s="10"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
+      <c r="A30" s="13"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2186,10 +2120,7 @@
       <c r="Y30" s="10"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="A31" s="13"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2216,10 +2147,7 @@
       <c r="Y31" s="10"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="A32" s="13"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -2246,10 +2174,7 @@
       <c r="Y32" s="10"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
+      <c r="A33" s="13"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2276,10 +2201,7 @@
       <c r="Y33" s="10"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="A34" s="13"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2306,10 +2228,7 @@
       <c r="Y34" s="10"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
+      <c r="A35" s="13"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -2336,10 +2255,7 @@
       <c r="Y35" s="10"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
+      <c r="A36" s="13"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2366,10 +2282,7 @@
       <c r="Y36" s="10"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
+      <c r="A37" s="13"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -2396,10 +2309,7 @@
       <c r="Y37" s="10"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
+      <c r="A38" s="13"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2426,10 +2336,7 @@
       <c r="Y38" s="10"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="A39" s="13"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -2459,11 +2366,11 @@
       <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="28">
         <f>SUM(B9:Y39)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="28"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -2496,15 +2403,15 @@
       <c r="A42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="14" t="e">
+      <c r="B42" s="19" t="e">
         <f>ROUND(AVERAGE(O17,P18,O19,Q20,O21,O24,P25,O26,G27,H28,I31,G32,H33,G34,G35,P38,P39),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L46" s="9"/>
@@ -2514,12 +2421,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="A4:C4"/>
@@ -2528,6 +2429,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.19685039370078741" top="0.47244094488188981" bottom="0.16" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
